--- a/pythonProject1/HH_s_template/Python-上架表-2WXX20240826.xlsx
+++ b/pythonProject1/HH_s_template/Python-上架表-2WXX20240826.xlsx
@@ -11973,16 +11973,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-SJJ240828004-Herunwer</t>
-        </is>
-      </c>
-      <c r="E7" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="21" t="n"/>
       <c r="F7" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -12143,41 +12135,17 @@
           <t>red</t>
         </is>
       </c>
-      <c r="DE7" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE7" s="21" t="n"/>
       <c r="DF7" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG7" s="21" t="inlineStr">
-        <is>
-          <t>Adorable Christmas Calendar Countdown Gift! - Christmas countdown advent calendar, and funny to discover. Christmas.</t>
-        </is>
-      </c>
-      <c r="DH7" s="21" t="inlineStr">
-        <is>
-          <t>The advent calendars help you Improve the patience of your kids and your babies will get different surprises and happiness every day.</t>
-        </is>
-      </c>
-      <c r="DI7" s="21" t="inlineStr">
-        <is>
-          <t>Safe - The christmas advent calendar is made of TPR.</t>
-        </is>
-      </c>
-      <c r="DJ7" s="21" t="inlineStr">
-        <is>
-          <t>Gift ideal for your friend.</t>
-        </is>
-      </c>
-      <c r="DK7" s="21" t="inlineStr">
-        <is>
-          <t>Material：Vinyl</t>
-        </is>
-      </c>
+      <c r="DG7" s="21" t="n"/>
+      <c r="DH7" s="21" t="n"/>
+      <c r="DI7" s="21" t="n"/>
+      <c r="DJ7" s="21" t="n"/>
+      <c r="DK7" s="21" t="n"/>
       <c r="DO7" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -12209,11 +12177,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN7" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-SJJ240828004-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN7" s="21" t="n"/>
       <c r="EO7" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -12229,11 +12193,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER7" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/aUlVVnNnb2t6RUlPc0UvQ3N6WThyOCs3MzNoSnRiWXlUL2EwdHgvdjd2eGREVkQ5S04yZWhtK1Q0bGlFOVUzSGRkTFUvRSs0cGwwPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER7" s="21" t="n"/>
       <c r="FO7" t="inlineStr">
         <is>
           <t>1</t>
@@ -12241,16 +12201,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="12" t="inlineStr">
-        <is>
-          <t>2WXX20240812-SJJ241008001-Herunwer</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="13" t="n"/>
       <c r="F8" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -12386,41 +12338,17 @@
           <t>muticolor</t>
         </is>
       </c>
-      <c r="DE8" s="13" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE8" s="13" t="n"/>
       <c r="DF8" s="13" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG8" s="13" t="inlineStr">
-        <is>
-          <t>Product size: about 9x3.5CM</t>
-        </is>
-      </c>
-      <c r="DH8" s="13" t="inlineStr">
-        <is>
-          <t>Packing : OPP bag</t>
-        </is>
-      </c>
-      <c r="DI8" s="13" t="inlineStr">
-        <is>
-          <t>[Explanation] The wall-toy(also known as the flipping ) is made of special rubber,</t>
-        </is>
-      </c>
-      <c r="DJ8" s="13" t="inlineStr">
-        <is>
-          <t>which is to the , and the ends of the hands and feet have red beads made of soft rubber.</t>
-        </is>
-      </c>
-      <c r="DK8" s="13" t="inlineStr">
-        <is>
-          <t>[Benefits] It can cultivate children's hands-on ability and explore the physics of toys. It is an affordable and cost-effective play.</t>
-        </is>
-      </c>
+      <c r="DG8" s="13" t="n"/>
+      <c r="DH8" s="13" t="n"/>
+      <c r="DI8" s="13" t="n"/>
+      <c r="DJ8" s="13" t="n"/>
+      <c r="DK8" s="13" t="n"/>
       <c r="DL8" s="21" t="n"/>
       <c r="DO8" s="21" t="inlineStr">
         <is>
@@ -12459,11 +12387,7 @@
       </c>
       <c r="EJ8" s="21" t="n"/>
       <c r="EK8" s="12" t="n"/>
-      <c r="EN8" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-SJJ241008001-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN8" s="21" t="n"/>
       <c r="EO8" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -12479,11 +12403,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER8" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/NnJXbERHcERvNzl3MWVHOTRxRGZSYW8wU1Y0UkdSb0xIK3ArTHc0TWh3R1Y4RmlTOHpISTJ1NW5qT2o0WGx2VmNPbHViS1dGd3ZNPQ.jpg</t>
-        </is>
-      </c>
+      <c r="ER8" s="21" t="n"/>
       <c r="FC8" s="21" t="n"/>
       <c r="FE8" s="21" t="n"/>
       <c r="FK8" s="21" t="n"/>
@@ -12495,16 +12415,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240906008-Herunwer</t>
-        </is>
-      </c>
-      <c r="E9" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D9" s="21" t="n"/>
+      <c r="E9" s="21" t="n"/>
       <c r="F9" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -12665,41 +12577,17 @@
           <t>Red</t>
         </is>
       </c>
-      <c r="DE9" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE9" s="21" t="n"/>
       <c r="DF9" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG9" s="21" t="inlineStr">
-        <is>
-          <t>2. Turn on the on the car button.</t>
-        </is>
-      </c>
-      <c r="DH9" s="21" t="inlineStr">
-        <is>
-          <t>3. Place the car of the drawn line.</t>
-        </is>
-      </c>
-      <c r="DI9" s="21" t="inlineStr">
-        <is>
-          <t>4. The trolley will automatically go online.</t>
-        </is>
-      </c>
-      <c r="DJ9" s="21" t="inlineStr">
-        <is>
-          <t>5. If the route ends, the vehicle will continue to drive in the direction followed by the previous route.</t>
-        </is>
-      </c>
-      <c r="DK9" s="21" t="inlineStr">
-        <is>
-          <t>6. If the line is too thin, the vehicle may deviate, make the line thicker (the thickness of the line should be one-quarter inch)</t>
-        </is>
-      </c>
+      <c r="DG9" s="21" t="n"/>
+      <c r="DH9" s="21" t="n"/>
+      <c r="DI9" s="21" t="n"/>
+      <c r="DJ9" s="21" t="n"/>
+      <c r="DK9" s="21" t="n"/>
       <c r="DO9" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -12727,11 +12615,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN9" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240906008-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN9" s="21" t="n"/>
       <c r="EO9" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -12747,11 +12631,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER9" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/Q01tQ2FhWGY1bkIwME82TzkyZmo3d3FCZDkveGE4SnBsU2IvOXNZMVYzZERFL0VRTjZyd2paN2tFL211a0FwUUlweTZWVWlkMGc4PQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER9" s="21" t="n"/>
       <c r="FO9" t="inlineStr">
         <is>
           <t>1</t>
@@ -12759,16 +12639,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-TDM240923003-Herunwer</t>
-        </is>
-      </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D10" s="21" t="n"/>
+      <c r="E10" s="21" t="n"/>
       <c r="F10" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -12933,41 +12805,17 @@
           <t>Green</t>
         </is>
       </c>
-      <c r="DE10" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE10" s="21" t="n"/>
       <c r="DF10" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG10" s="21" t="inlineStr">
-        <is>
-          <t>Excellent Gifts For Family: The pool snooker table is suitable for both kids and adults. Moreover, the indoor game is useful to enhance the kids hand eye</t>
-        </is>
-      </c>
-      <c r="DH10" s="21" t="inlineStr">
-        <is>
-          <t>coordination and concentration.</t>
-        </is>
-      </c>
-      <c r="DI10" s="21" t="inlineStr">
-        <is>
-          <t>Desktop Frame: It</t>
-        </is>
-      </c>
-      <c r="DJ10" s="21" t="inlineStr">
-        <is>
-          <t>is made of thick, plastic, which is more textured. The entire table is reinforced with, which is more stable and.</t>
-        </is>
-      </c>
-      <c r="DK10" s="21" t="inlineStr">
-        <is>
-          <t>Table &amp; Balls: The standard table tennis balls used in the table tennis game table are made of thick plastic. to fall and crash,.</t>
-        </is>
-      </c>
+      <c r="DG10" s="21" t="n"/>
+      <c r="DH10" s="21" t="n"/>
+      <c r="DI10" s="21" t="n"/>
+      <c r="DJ10" s="21" t="n"/>
+      <c r="DK10" s="21" t="n"/>
       <c r="DO10" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -12995,11 +12843,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN10" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-TDM240923003-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN10" s="21" t="n"/>
       <c r="EO10" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -13015,11 +12859,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER10" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/MkUyWk5EUUZvMmduQklxZXloY2ZSMFJiZHZYRnllT0ErSUF3ZEk5Y2F4THhLeDJPSyt0MUl4N29FajZxQjBsUVZiTEhqWEQ0SFpJPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER10" s="21" t="n"/>
       <c r="FO10" t="inlineStr">
         <is>
           <t>1</t>
@@ -13027,16 +12867,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ240828004-Herunwer</t>
-        </is>
-      </c>
-      <c r="E11" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D11" s="21" t="n"/>
+      <c r="E11" s="21" t="n"/>
       <c r="F11" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -13201,41 +13033,17 @@
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="DE11" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE11" s="21" t="n"/>
       <c r="DF11" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG11" s="21" t="inlineStr">
-        <is>
-          <t>Description:</t>
-        </is>
-      </c>
-      <c r="DH11" s="21" t="inlineStr">
-        <is>
-          <t>Painted Dinosaur Doodle Set.</t>
-        </is>
-      </c>
-      <c r="DI11" s="21" t="inlineStr">
-        <is>
-          <t>The benefits of art for children: the brain, cultivate a strong sense of, and a preliminary understanding of art.</t>
-        </is>
-      </c>
-      <c r="DJ11" s="21" t="inlineStr">
-        <is>
-          <t>This product allows to find their own childhood and release their childlike innocence !.</t>
-        </is>
-      </c>
-      <c r="DK11" s="21" t="inlineStr">
-        <is>
-          <t>Type: Children's doodle toys</t>
-        </is>
-      </c>
+      <c r="DG11" s="21" t="n"/>
+      <c r="DH11" s="21" t="n"/>
+      <c r="DI11" s="21" t="n"/>
+      <c r="DJ11" s="21" t="n"/>
+      <c r="DK11" s="21" t="n"/>
       <c r="DO11" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -13263,11 +13071,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN11" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ240828004-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN11" s="21" t="n"/>
       <c r="EO11" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -13283,11 +13087,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER11" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/MXZmaWpSVG90RnhROFhyTXJsT0N0SWMvYXQvbDlhUnhDSGkxRzIyMGxXZGxVYWJtb3YyU0ZmRzB3eldZcEVoQjV1WnRYcDQrbHBJPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER11" s="21" t="n"/>
       <c r="FO11" t="inlineStr">
         <is>
           <t>1</t>
@@ -13295,16 +13095,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240904005-Herunwer</t>
-        </is>
-      </c>
-      <c r="E12" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D12" s="21" t="n"/>
+      <c r="E12" s="21" t="n"/>
       <c r="F12" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -13469,41 +13261,17 @@
           <t>multicolor</t>
         </is>
       </c>
-      <c r="DE12" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE12" s="21" t="n"/>
       <c r="DF12" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG12" s="21" t="inlineStr">
-        <is>
-          <t>Descriptions:</t>
-        </is>
-      </c>
-      <c r="DH12" s="21" t="inlineStr">
-        <is>
-          <t>along. Place in treat bags or hand out as party favors. A</t>
-        </is>
-      </c>
-      <c r="DI12" s="21" t="inlineStr">
-        <is>
-          <t>great keepsake!</t>
-        </is>
-      </c>
-      <c r="DJ12" s="21" t="inlineStr">
-        <is>
-          <t>【We are Different】More cute &amp; funny Wind up toy to bring you have a different Christmas.This Christmas Wind Up Toy Assortment for Christmas Bag Filler.No Duplicates,including in Dark Wind-up Eyeball, the Skull Pirate and The Open and Close Mouth while Jumping, etc, will make your themed party much more special.</t>
-        </is>
-      </c>
-      <c r="DK12" s="21" t="inlineStr">
-        <is>
-          <t>Great for children's birthday parties, Christmas, and party favors. Children wil</t>
-        </is>
-      </c>
+      <c r="DG12" s="21" t="n"/>
+      <c r="DH12" s="21" t="n"/>
+      <c r="DI12" s="21" t="n"/>
+      <c r="DJ12" s="21" t="n"/>
+      <c r="DK12" s="21" t="n"/>
       <c r="DO12" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -13531,11 +13299,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN12" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240904005-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN12" s="21" t="n"/>
       <c r="EO12" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -13551,11 +13315,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER12" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/SXd3cEFvOFJaT3lYZXZyZGJDUG9PODBZM3E0VERobDFnZFJOdnllOVBlTnByWmcwQ0poeVNyQXY2ckZrd3lrTkR4b1p1V1ZFckdFPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER12" s="21" t="n"/>
       <c r="FO12" t="inlineStr">
         <is>
           <t>1</t>
@@ -13563,16 +13323,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240911005-Herunwer</t>
-        </is>
-      </c>
-      <c r="E13" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D13" s="21" t="n"/>
+      <c r="E13" s="21" t="n"/>
       <c r="F13" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -13737,41 +13489,17 @@
           <t>Black</t>
         </is>
       </c>
-      <c r="DE13" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE13" s="21" t="n"/>
       <c r="DF13" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG13" s="21" t="inlineStr">
-        <is>
-          <t>Realistic Design -- According to the prototype design of the bicycle, the is exquisite, the shape is realistic, and it is packaged in an independent color box.</t>
-        </is>
-      </c>
-      <c r="DH13" s="21" t="inlineStr">
-        <is>
-          <t>RETRO STYLE -- The unique retro style is rare in the market. You can the ancient scene you want according to the bike.</t>
-        </is>
-      </c>
-      <c r="DI13" s="21" t="inlineStr">
-        <is>
-          <t>-- Alloy and plastic, wear-materials will increase the life of toys. It looks more realistic, it can work with your mini doll, or hang it behind your toy car as a simulation scene.</t>
-        </is>
-      </c>
-      <c r="DJ13" s="21" t="inlineStr">
-        <is>
-          <t>Toy Gift-- I think this gift is very suitable for the elders, so that they can remember good memories. As toys, children can play pretend games.</t>
-        </is>
-      </c>
-      <c r="DK13" s="21" t="inlineStr">
-        <is>
-          <t>SPECIFICATIONS</t>
-        </is>
-      </c>
+      <c r="DG13" s="21" t="n"/>
+      <c r="DH13" s="21" t="n"/>
+      <c r="DI13" s="21" t="n"/>
+      <c r="DJ13" s="21" t="n"/>
+      <c r="DK13" s="21" t="n"/>
       <c r="DO13" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -13803,11 +13531,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN13" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240911005-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN13" s="21" t="n"/>
       <c r="EO13" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -13823,11 +13547,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER13" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/VVFsUjhKbVV6Q0RMYmZ4clY2dmIvUFIyYy9RRUNOdzJ2RnpMajhUNlhRUFI4R0U2bkVmRnBVb2VCNXJ0VWMraFdYbzRrRFMzMjNBPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER13" s="21" t="n"/>
       <c r="FO13" t="inlineStr">
         <is>
           <t>1</t>
@@ -13835,16 +13555,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241014004-Herunwer</t>
-        </is>
-      </c>
-      <c r="E14" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D14" s="21" t="n"/>
+      <c r="E14" s="21" t="n"/>
       <c r="F14" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -14004,41 +13716,17 @@
           <t>AS SHOWN</t>
         </is>
       </c>
-      <c r="DE14" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE14" s="21" t="n"/>
       <c r="DF14" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG14" s="21" t="inlineStr">
-        <is>
-          <t>Telescopic stunt remote control car telescopic transformation form, adapt to a variety of terrains, giving you an extraordinary experience of all-round driving. Off-road tire stunt rotation.</t>
-        </is>
-      </c>
-      <c r="DH14" s="21" t="inlineStr">
-        <is>
-          <t>deformation, high reliability, telescopic deformation, all-round rotating whirlwind to try out the spinning special effects.</t>
-        </is>
-      </c>
-      <c r="DI14" s="21" t="inlineStr">
-        <is>
-          <t>360 ° flip and flip walking, no obstacles to travel, Wang exquisite body, beautiful and.</t>
-        </is>
-      </c>
-      <c r="DJ14" s="21" t="inlineStr">
-        <is>
-          <t>Wireless remote control 2.4G infrared remote control, more convenient.</t>
-        </is>
-      </c>
-      <c r="DK14" s="21" t="inlineStr">
-        <is>
-          <t>Cool and elegant. This remote control car let your child's childhood more than a ! Make your life more !</t>
-        </is>
-      </c>
+      <c r="DG14" s="21" t="n"/>
+      <c r="DH14" s="21" t="n"/>
+      <c r="DI14" s="21" t="n"/>
+      <c r="DJ14" s="21" t="n"/>
+      <c r="DK14" s="21" t="n"/>
       <c r="DO14" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -14066,11 +13754,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN14" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241014004-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN14" s="21" t="n"/>
       <c r="EO14" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -14086,11 +13770,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER14" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/V2FneHdRblo0L2JLVE1LMXg3dUpyNHpVa3A5M011SGhVRDg5Z0RBRUluaUcwSzR2YXphVXNRNG1GSFkwaSs5SHdxYnp0RHQ0aWVvPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER14" s="21" t="n"/>
       <c r="FO14" t="inlineStr">
         <is>
           <t>1</t>
@@ -14098,16 +13778,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240905005-Herunwer</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="n"/>
       <c r="F15" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -14272,41 +13944,17 @@
           <t>Muticolor</t>
         </is>
       </c>
-      <c r="DE15" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE15" s="21" t="n"/>
       <c r="DF15" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG15" s="21" t="inlineStr">
-        <is>
-          <t>Unleash Your Inner Lumberjack – Children And Adults Alike Will At This Clever, Safe Take On The Popular Axe Throwing Trend Sweeping The</t>
-        </is>
-      </c>
-      <c r="DH15" s="21" t="inlineStr">
-        <is>
-          <t>! Players Take Turns Hurling The Two Sturdy Foam Axes At Our Hook &amp; Loop Log Stump To Determine The Ultimate .</t>
-        </is>
-      </c>
-      <c r="DI15" s="21" t="inlineStr">
-        <is>
-          <t>Motor Skills - For Children Ages 6+, This Game Can Help Your Little Ones With And Hand-Eye Coordination. As a , Keeping Track Of The Score Can Help Reinforce Math Concepts!</t>
-        </is>
-      </c>
-      <c r="DJ15" s="21" t="inlineStr">
-        <is>
-          <t>The – Each Of The Two Included Foam Axe “Blades” Are Covered With A Strip Of Hook &amp; Loop That Will Stick To The Fabric Wood Stump On. Each On The Is Worth 1,</t>
-        </is>
-      </c>
-      <c r="DK15" s="21" t="inlineStr">
-        <is>
-          <t>2, 3, Or 4 Points, The Is Worth 6 Points!</t>
-        </is>
-      </c>
+      <c r="DG15" s="21" t="n"/>
+      <c r="DH15" s="21" t="n"/>
+      <c r="DI15" s="21" t="n"/>
+      <c r="DJ15" s="21" t="n"/>
+      <c r="DK15" s="21" t="n"/>
       <c r="DO15" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -14334,11 +13982,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN15" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240905005-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN15" s="21" t="n"/>
       <c r="EO15" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -14354,11 +13998,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER15" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/VFJaNWNnbHpLbDJGanFNMXBDUUNXM01ibTNlakdlODNJOVlnNGxYZUs5NG9mdFhyemhGQnp5bWJJY0tORHR6NVkvVEtFRW5EQldRPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER15" s="21" t="n"/>
       <c r="FO15" t="inlineStr">
         <is>
           <t>1</t>
@@ -14366,16 +14006,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022004-Herunwer</t>
-        </is>
-      </c>
-      <c r="E16" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="21" t="n"/>
       <c r="F16" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -14536,41 +14168,17 @@
           <t>Red</t>
         </is>
       </c>
-      <c r="DE16" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE16" s="21" t="n"/>
       <c r="DF16" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG16" s="21" t="inlineStr">
-        <is>
-          <t>2. Turn on the on the car button.</t>
-        </is>
-      </c>
-      <c r="DH16" s="21" t="inlineStr">
-        <is>
-          <t>3. Place the car of the drawn line.</t>
-        </is>
-      </c>
-      <c r="DI16" s="21" t="inlineStr">
-        <is>
-          <t>4. The trolley will automatically go online.</t>
-        </is>
-      </c>
-      <c r="DJ16" s="21" t="inlineStr">
-        <is>
-          <t>5. If the route ends, the vehicle will continue to drive in the direction followed by the previous route.</t>
-        </is>
-      </c>
-      <c r="DK16" s="21" t="inlineStr">
-        <is>
-          <t>6. If the line is too thin, the vehicle may deviate, make the line thicker (the thickness of the line should be one-quarter inch)</t>
-        </is>
-      </c>
+      <c r="DG16" s="21" t="n"/>
+      <c r="DH16" s="21" t="n"/>
+      <c r="DI16" s="21" t="n"/>
+      <c r="DJ16" s="21" t="n"/>
+      <c r="DK16" s="21" t="n"/>
       <c r="DO16" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -14598,11 +14206,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN16" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022004-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN16" s="21" t="n"/>
       <c r="EO16" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -14618,11 +14222,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER16" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/eFJOUXE4b2N4Z2dZcEhDY2o0WGd3RUZ0cVpFQTR4TllZM2M0VkdxQWtRMDQvQ3FDaHdhQ2ZUY2RXWCttNjlMbVpiY0VNcVAzUGxVPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER16" s="21" t="n"/>
       <c r="FO16" t="inlineStr">
         <is>
           <t>1</t>
@@ -14630,16 +14230,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022006-Herunwer</t>
-        </is>
-      </c>
-      <c r="E17" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D17" s="21" t="n"/>
+      <c r="E17" s="21" t="n"/>
       <c r="F17" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -14804,41 +14396,17 @@
           <t>color</t>
         </is>
       </c>
-      <c r="DE17" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE17" s="21" t="n"/>
       <c r="DF17" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG17" s="21" t="inlineStr">
-        <is>
-          <t>Realistic Plastic Toy Groceries Food and Kitchen Playset include different tools. Unisex cooking food set encourages, dexterity.</t>
-        </is>
-      </c>
-      <c r="DH17" s="21" t="inlineStr">
-        <is>
-          <t>Our play dish set is not an entertaining pretend play set—it also helps kids and thinking skills.</t>
-        </is>
-      </c>
-      <c r="DI17" s="21" t="inlineStr">
-        <is>
-          <t>Let's kids enjoy together from cutting,cooking,enjoying meal with cookware set to use with, family, or stuffed animals.</t>
-        </is>
-      </c>
-      <c r="DJ17" s="21" t="inlineStr">
-        <is>
-          <t>Kitchen play set for kids realistic role play, help kids cooperation and language skills, to simulate friendship with.</t>
-        </is>
-      </c>
-      <c r="DK17" s="21" t="inlineStr">
-        <is>
-          <t>Easy to play these kids kitchen accessories, train kid's fine motor skills and improve their hand-eye coordination. kids also can identify with the adult world.</t>
-        </is>
-      </c>
+      <c r="DG17" s="21" t="n"/>
+      <c r="DH17" s="21" t="n"/>
+      <c r="DI17" s="21" t="n"/>
+      <c r="DJ17" s="21" t="n"/>
+      <c r="DK17" s="21" t="n"/>
       <c r="DO17" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -14866,11 +14434,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN17" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022006-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN17" s="21" t="n"/>
       <c r="EO17" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -14886,11 +14450,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER17" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/Y2FtVjdZRzRzQkRIak1ocEw5dUR1SkRoWUdPMlhJcWNzZzBTd3NnNXBLUnl1b1ZlM3ZhYTUzOTY1dUQ2ZlNqdTVuSStiKzd0Z0o0PQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER17" s="21" t="n"/>
       <c r="FO17" t="inlineStr">
         <is>
           <t>1</t>
@@ -14898,16 +14458,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240903003-Herunwer</t>
-        </is>
-      </c>
-      <c r="E18" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D18" s="21" t="n"/>
+      <c r="E18" s="21" t="n"/>
       <c r="F18" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -15059,41 +14611,17 @@
           <t>As show</t>
         </is>
       </c>
-      <c r="DE18" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE18" s="21" t="n"/>
       <c r="DF18" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG18" s="21" t="inlineStr">
-        <is>
-          <t>new and.</t>
-        </is>
-      </c>
-      <c r="DH18" s="21" t="inlineStr">
-        <is>
-          <t>The simulation will call when you click the bottom of the button.</t>
-        </is>
-      </c>
-      <c r="DI18" s="21" t="inlineStr">
-        <is>
-          <t>Suitable for over three years old.</t>
-        </is>
-      </c>
-      <c r="DJ18" s="21" t="inlineStr">
-        <is>
-          <t>High simulation, lifelike, feels delicate and, and it is easy to fade and hair.It has high ornamental and collection value. The doll can move by itself.</t>
-        </is>
-      </c>
-      <c r="DK18" s="21" t="inlineStr">
-        <is>
-          <t>Educational: toys are very cute and realistic, can stimulate children's vision and hearing, help them to recognize the outside world.</t>
-        </is>
-      </c>
+      <c r="DG18" s="21" t="n"/>
+      <c r="DH18" s="21" t="n"/>
+      <c r="DI18" s="21" t="n"/>
+      <c r="DJ18" s="21" t="n"/>
+      <c r="DK18" s="21" t="n"/>
       <c r="DO18" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -15121,11 +14649,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN18" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240903003-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN18" s="21" t="n"/>
       <c r="EO18" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -15141,11 +14665,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER18" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/TjJzcDEwV2dLMkJ4bTNDZjlTRFlnUXY0ajVaYWJWclIzczVTUzB3M2g2SFltdW9ibk5pbHUwNW12WVpSYlNiQUw1bWxCdFRpbURJPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER18" s="21" t="n"/>
       <c r="FO18" t="inlineStr">
         <is>
           <t>1</t>
@@ -15153,16 +14673,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241029008-Herunwer</t>
-        </is>
-      </c>
-      <c r="E19" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D19" s="21" t="n"/>
+      <c r="E19" s="21" t="n"/>
       <c r="F19" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -15323,41 +14835,17 @@
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="DE19" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE19" s="21" t="n"/>
       <c r="DF19" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG19" s="21" t="inlineStr">
-        <is>
-          <t>Fancy school toy.</t>
-        </is>
-      </c>
-      <c r="DH19" s="21" t="inlineStr">
-        <is>
-          <t>, slowly rising, lifelike</t>
-        </is>
-      </c>
-      <c r="DI19" s="21" t="inlineStr">
-        <is>
-          <t>Quantity: 1 piece</t>
-        </is>
-      </c>
-      <c r="DJ19" s="21" t="inlineStr">
-        <is>
-          <t>Style: ice cream</t>
-        </is>
-      </c>
-      <c r="DK19" s="21" t="inlineStr">
-        <is>
-          <t>Material: foam</t>
-        </is>
-      </c>
+      <c r="DG19" s="21" t="n"/>
+      <c r="DH19" s="21" t="n"/>
+      <c r="DI19" s="21" t="n"/>
+      <c r="DJ19" s="21" t="n"/>
+      <c r="DK19" s="21" t="n"/>
       <c r="DO19" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -15385,11 +14873,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN19" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241029008-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN19" s="21" t="n"/>
       <c r="EO19" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -15405,11 +14889,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER19" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/VGxMVXZrZzFwWUkwdGxSRVZrZlF1dWhITVVCckIxc2NMYjV1RkxKZmdSRzFjL2d2NWV5Z1JRK3dnRVFUSHpHS2dPZ3NiKzk3eFZZPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER19" s="21" t="n"/>
       <c r="FO19" t="inlineStr">
         <is>
           <t>1</t>
@@ -15417,16 +14897,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-BYX240919003-Herunwer</t>
-        </is>
-      </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D20" s="21" t="n"/>
+      <c r="E20" s="21" t="n"/>
       <c r="F20" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -15591,41 +15063,17 @@
           <t>Orange</t>
         </is>
       </c>
-      <c r="DE20" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE20" s="21" t="n"/>
       <c r="DF20" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG20" s="21" t="inlineStr">
-        <is>
-          <t>Create musical interest : This hand rattle music toy product is what children like to catch, this will come with multiple accessories, a variety of music toys that can make sound, create musical interest and happiness for children</t>
-        </is>
-      </c>
-      <c r="DH20" s="21" t="inlineStr">
-        <is>
-          <t>Unique Cute Theme: This is a unique theme made from toys and our toddler sensory toys with different textures to suit your child's feelings. In play, happiness is the constant identification of many different parts, which allows the little ones to learn more.</t>
-        </is>
-      </c>
-      <c r="DI20" s="21" t="inlineStr">
-        <is>
-          <t>Rattle music toy: This is a rattle music toy that can make a bell, exercise children's hearing sense, stimulate children's potential feeling for music, children's memory and important key skills in the first year, from an early age of sensory exploration and motor development, so that you have the opportunity to spend a warm, warm time with your child.</t>
-        </is>
-      </c>
-      <c r="DJ20" s="21" t="inlineStr">
-        <is>
-          <t>The pattern color is different: the color , the color is bright, the pattern is cute, the contrast is high, the size is suitable, and the choice of multiple colors and shapes allows children to feel the enjoyment brought by music toys.</t>
-        </is>
-      </c>
-      <c r="DK20" s="21" t="inlineStr">
-        <is>
-          <t>Great toy gifts: Our toys are designed to make kids more imaginative. The setting of this toy will bring interest to your child. This is the children aged 6 to 24 months. As birthday gifts, children's gifts and New Year's gifts</t>
-        </is>
-      </c>
+      <c r="DG20" s="21" t="n"/>
+      <c r="DH20" s="21" t="n"/>
+      <c r="DI20" s="21" t="n"/>
+      <c r="DJ20" s="21" t="n"/>
+      <c r="DK20" s="21" t="n"/>
       <c r="DO20" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -15657,11 +15105,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN20" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-BYX240919003-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN20" s="21" t="n"/>
       <c r="EO20" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -15677,11 +15121,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER20" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/LyszWmVLUHdwWFArMERXaVZkUktxQjFkWUg5cXJ1dWVwZk5aV2Nja2VLYUdMWlI5WkZoSmNjMjZiMUJhK2tCcERtYTc1YUhwVC84PQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER20" s="21" t="n"/>
       <c r="FO20" t="inlineStr">
         <is>
           <t>1</t>
@@ -15689,16 +15129,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022002-Herunwer</t>
-        </is>
-      </c>
-      <c r="E21" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D21" s="21" t="n"/>
+      <c r="E21" s="21" t="n"/>
       <c r="F21" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -15847,41 +15279,17 @@
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="DE21" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE21" s="21" t="n"/>
       <c r="DF21" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG21" s="21" t="inlineStr">
-        <is>
-          <t>Description:</t>
-        </is>
-      </c>
-      <c r="DH21" s="21" t="inlineStr">
-        <is>
-          <t>Get your kids familiar with sounds of &amp; music at an early age!</t>
-        </is>
-      </c>
-      <c r="DI21" s="21" t="inlineStr">
-        <is>
-          <t>Let them learn music with the Electronic Piano Mat! STEP &amp; PLAY! – This mat is engineered with a “smart sensor chip layer” that plays music when right off the. All you have to do is step on the keys to produce amazing combinations of tunes!</t>
-        </is>
-      </c>
-      <c r="DJ21" s="21" t="inlineStr">
-        <is>
-          <t>GREAT MUSIC TEACHER – Introduces your kids to music at an early age! Its auxiliary device is programmed with 5 calls and 8 piano function keys your kiddos can choose from — allowing them to get familiarized with various sounds &amp; nice songs.</t>
-        </is>
-      </c>
-      <c r="DK21" s="21" t="inlineStr">
-        <is>
-          <t>COMFY TO OPERATE – Built with cotton layer, this mat provides your feet a thick, to step on for a comfortable experience!</t>
-        </is>
-      </c>
+      <c r="DG21" s="21" t="n"/>
+      <c r="DH21" s="21" t="n"/>
+      <c r="DI21" s="21" t="n"/>
+      <c r="DJ21" s="21" t="n"/>
+      <c r="DK21" s="21" t="n"/>
       <c r="DO21" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -15909,11 +15317,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN21" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-AJJ241022002-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN21" s="21" t="n"/>
       <c r="EO21" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -15929,11 +15333,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER21" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/elFjeWVQTEtmYXBJSFJDS3RWRWl1S2ZDV0NhY0pCZkRZMVVLTXlIaytsc0tOWDl4RjFmczV0dzRyNlo4TXM2RU8zZnhoZmtBM0JvPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER21" s="21" t="n"/>
       <c r="FO21" t="inlineStr">
         <is>
           <t>1</t>
@@ -15941,16 +15341,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240903001-Herunwer</t>
-        </is>
-      </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D22" s="21" t="n"/>
+      <c r="E22" s="21" t="n"/>
       <c r="F22" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -16115,41 +15507,17 @@
           <t>multicoloured</t>
         </is>
       </c>
-      <c r="DE22" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE22" s="21" t="n"/>
       <c r="DF22" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG22" s="21" t="inlineStr">
-        <is>
-          <t>STRESS RELIEF: These pumpkin sensory toys are soft and cuddly and can be squeezed and stretched to help relieve stress, anxiety and tension. It's a great calming tool for those with Attention Deficit Disorder (ADD) and Hyperactivity Disorder (ADHD) and also improves concentration.</t>
-        </is>
-      </c>
-      <c r="DH22" s="21" t="inlineStr">
-        <is>
-          <t>STYLING: Halloween pinch and ghost festival colorful beads pumpkin toys are made of cute pumpkin shape with bright colors and delicate expression design, adding festive mood, suitable for Halloween decorations or giveaways.</t>
-        </is>
-      </c>
-      <c r="DI22" s="21" t="inlineStr">
-        <is>
-          <t>PARTY FAVORS: Can be used as Halloween party favors, classroom rewards, carnivals, prize boxes, gift bag fillers, pinta fillers, holiday party or birthday gifts. These toys can be given as candy to trick-or-treaters or gift bags. Great toys for Halloween or parties.</t>
-        </is>
-      </c>
-      <c r="DJ22" s="21" t="inlineStr">
-        <is>
-          <t>Halloween gadget kit: colorful soft pumpkin stress balls. This gadget is very easy to store. These gadgets can be used in place of Halloween candy for kids.</t>
-        </is>
-      </c>
-      <c r="DK22" s="21" t="inlineStr">
-        <is>
-          <t>PREMIUM QUALITY MATERIAL: The outer layer is made of thick thermoplastic rubber (TPR), very flexible and can be repeatedly squeezed. Can be reused for a long time and can be cleaned with soap and water when dirty.</t>
-        </is>
-      </c>
+      <c r="DG22" s="21" t="n"/>
+      <c r="DH22" s="21" t="n"/>
+      <c r="DI22" s="21" t="n"/>
+      <c r="DJ22" s="21" t="n"/>
+      <c r="DK22" s="21" t="n"/>
       <c r="DO22" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -16181,11 +15549,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN22" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240903001-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN22" s="21" t="n"/>
       <c r="EO22" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -16201,11 +15565,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER22" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/S2xJNHVvZFd0TDMxWVlRSGZ1ZVpMQWFNbVQwTUlvcUlsVnBUNnptMjVjN2xZdnhxQW9oZjdhR0l3ZS8xcjBBTjIxNXg5ZzVSNlIwPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER22" s="21" t="n"/>
       <c r="FO22" t="inlineStr">
         <is>
           <t>1</t>
@@ -16213,16 +15573,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240820002-Herunwer</t>
-        </is>
-      </c>
-      <c r="E23" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D23" s="21" t="n"/>
+      <c r="E23" s="21" t="n"/>
       <c r="F23" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -16371,41 +15723,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="DE23" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE23" s="21" t="n"/>
       <c r="DF23" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG23" s="21" t="inlineStr">
-        <is>
-          <t>reasons for violations: this bad parking card contains a variety of common parking violations such as parking over the line, up a pavement or , and occupying multiple parking spaces. These cards help you point out other people's parking misdemeanours and provide a humorous way to your displeasure.</t>
-        </is>
-      </c>
-      <c r="DH23" s="21" t="inlineStr">
-        <is>
-          <t>HUMOUROUS DESIGN: Each card features a black and red colour scheme with striking yellow text that reads ‘Hey! You're definitely not good at parking!’ and ‘Turn it over to find out why’. This is a and eye-catching design that attracts people's attention and arouses their interest.</t>
-        </is>
-      </c>
-      <c r="DI23" s="21" t="inlineStr">
-        <is>
-          <t>EASY TO CARRY: This product contains 50 cards, so it's easy for you to carry it around with you. Whether you are in a car or on the roadside, whenever you see someone parking inappropriately, you can take out a card and put it on the other person's car to remind them to attention to their behaviour.</t>
-        </is>
-      </c>
-      <c r="DJ23" s="21" t="inlineStr">
-        <is>
-          <t>SOCIAL SHARING: In addition to being used to remind others, these cards can also be a great tool for social sharing. You can your experience of using these cards on social media, so that more people can learn about this interesting product and participate in the action to improve the parking environment.</t>
-        </is>
-      </c>
-      <c r="DK23" s="21" t="inlineStr">
-        <is>
-          <t>Raise Social Awareness: by using these cards, we can raise awareness of parking issues and encourage more people to follow traffic rules and etiquette. This will not help reduce traffic accidents, but also make our city more harmonious and orderly.</t>
-        </is>
-      </c>
+      <c r="DG23" s="21" t="n"/>
+      <c r="DH23" s="21" t="n"/>
+      <c r="DI23" s="21" t="n"/>
+      <c r="DJ23" s="21" t="n"/>
+      <c r="DK23" s="21" t="n"/>
       <c r="DO23" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -16437,11 +15765,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN23" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-ZJT240820002-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN23" s="21" t="n"/>
       <c r="EO23" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -16457,11 +15781,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER23" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/bFJJVkpkYk5jZmU0S1lEcWp0SlE1cEdpMjg2b1I4dGZGSkQvdjhrbi91WlRGR3pjd3BoR2JGMm1URkVsVGJNYk5iUmdMcUMwLzJVPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER23" s="21" t="n"/>
       <c r="FO23" t="inlineStr">
         <is>
           <t>1</t>
@@ -16469,16 +15789,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240906010-Herunwer</t>
-        </is>
-      </c>
-      <c r="E24" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herunwer </t>
-        </is>
-      </c>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="21" t="n"/>
       <c r="F24" s="21" t="inlineStr">
         <is>
           <t>EAN</t>
@@ -16627,41 +15939,17 @@
           <t>red</t>
         </is>
       </c>
-      <c r="DE24" s="21" t="inlineStr">
-        <is>
-          <t>Herunwer 【Service】 If you have any questions, please feel free to contact us and we will answer your questions as soon as possible.</t>
-        </is>
-      </c>
+      <c r="DE24" s="21" t="n"/>
       <c r="DF24" s="21" t="inlineStr">
         <is>
           <t>best gift</t>
         </is>
       </c>
-      <c r="DG24" s="21" t="inlineStr">
-        <is>
-          <t>SHAPE: This Christmas ornament is uniquely cute and lifelike reindeer, adding a joyful dimension to your holiday decorations.</t>
-        </is>
-      </c>
-      <c r="DH24" s="21" t="inlineStr">
-        <is>
-          <t>WARM LIGHTING: The decorations are equipped with LED lights, the soft lighting adds a warm and festive mood for Christmas, suitable for placing in the living room, dining table or window sill, creating a warm and romantic Christmas environment.</t>
-        </is>
-      </c>
-      <c r="DI24" s="21" t="inlineStr">
-        <is>
-          <t>MULTIFUNCTIONAL DECORATIONS: In addition to being used as holiday decorations, this light-up decoration can also be used as a night light to provide the right amount of light to a child's room and help create a cozy sleeping environment.</t>
-        </is>
-      </c>
-      <c r="DJ24" s="21" t="inlineStr">
-        <is>
-          <t>LED fixtures are made of materials that produce low heat, ensuring safe use without the worry of fire hazards, so you and your family can enjoy holiday decorations without worry.</t>
-        </is>
-      </c>
-      <c r="DK24" s="21" t="inlineStr">
-        <is>
-          <t>IDEAL HOLIDAY GIFT: This ornament with lights is a present for you and your family, it means warmth and happiness, it is both beautiful and practical, which can convey strong holiday blessings and add festivities and happiness to the holiday.</t>
-        </is>
-      </c>
+      <c r="DG24" s="21" t="n"/>
+      <c r="DH24" s="21" t="n"/>
+      <c r="DI24" s="21" t="n"/>
+      <c r="DJ24" s="21" t="n"/>
+      <c r="DK24" s="21" t="n"/>
       <c r="DO24" s="21" t="inlineStr">
         <is>
           <t>Crew Neck; Henley; Jewel Neck; Round Neckline; Scoop Neck; Slit Neck</t>
@@ -16693,11 +15981,7 @@
           <t>Long Sleeve</t>
         </is>
       </c>
-      <c r="EN24" s="21" t="inlineStr">
-        <is>
-          <t>2WXX20240812-PYX240906010-Herunwer</t>
-        </is>
-      </c>
+      <c r="EN24" s="21" t="n"/>
       <c r="EO24" s="21" t="inlineStr">
         <is>
           <t>color</t>
@@ -16713,11 +15997,7 @@
           <t>color</t>
         </is>
       </c>
-      <c r="ER24" s="21" t="inlineStr">
-        <is>
-          <t>http://108.174.59.131/djBpVkJ2K1hRdlZzQzZLdkdBRzAveGlGbTlnZDlXOGl2VG1EYktlbm1aNHFrbmhLK0JXMm1xd0YrWUQxcjFqblgrRmZZNkdGTkQwPQ.jpg@100</t>
-        </is>
-      </c>
+      <c r="ER24" s="21" t="n"/>
       <c r="FO24" t="inlineStr">
         <is>
           <t>1</t>
